--- a/M5/Repaso Modulo 5/RepasoM5/usuarios.xlsx
+++ b/M5/Repaso Modulo 5/RepasoM5/usuarios.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>nombre</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>hjfkd</t>
+  </si>
+  <si>
+    <t>scom</t>
+  </si>
+  <si>
+    <t>Commentz</t>
+  </si>
+  <si>
+    <t>dsadsa</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
   </si>
 </sst>
 </file>
@@ -95,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -171,6 +183,34 @@
         <v>12</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
